--- a/Large Images/reports/report.xlsx
+++ b/Large Images/reports/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1920,10 +1920,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>21691136843814</t>
-        </is>
+      <c r="C35" t="n">
+        <v>21691136843814</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1952,6 +1950,626 @@
       <c r="J35" t="inlineStr">
         <is>
           <t>2025-02-28 19:22:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>21691136843814</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.30 minutes</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>73.19%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>39.49%</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>56.72%</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2025-03-09 16:09:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>21691136843814</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.49 minutes</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>72.43%</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>45.77%</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>56.86%</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2025-03-09 16:59:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>21691136843814</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.41 minutes</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>73.27%</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>39.25%</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>56.69%</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2025-03-10 00:45:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>103610396583974</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.50 minutes</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>{'height': 2000, 'width': 2000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>85.25%</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2025-03-10 00:59:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>21691136843814</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.26 minutes</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>73.77%</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>43.71%</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>56.74%</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2025-03-10 01:11:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>21691136843814</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.47 minutes</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>72.00%</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>52.28%</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>56.32%</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2025-03-10 01:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1938830</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.44 minutes</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>{'height': 2048, 'width': 2048, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>19.41%</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>6.78%</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>24.80%</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-03-10 01:35:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1938830</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.05 minutes</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>{'height': 2048, 'width': 2048, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>30.07%</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>11.42%</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>45.54%</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2025-03-10 01:44:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>102004060440613</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.19 minutes</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>{'height': 3040, 'width': 4056, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>70.80%</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>68.75%</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2025-03-10 01:56:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>6464689526794</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.38 minutes</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>77.68%</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2025-03-10 02:08:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>6464689526794</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10.03 minutes</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>76.56%</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>73.08%</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2025-03-10 02:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>6464689526794</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.82 minutes</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>73.38%</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>78.26%</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2025-03-10 02:37:41</t>
         </is>
       </c>
     </row>

--- a/Large Images/reports/report.xlsx
+++ b/Large Images/reports/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2064,10 +2064,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>21691136843814</t>
-        </is>
+      <c r="C38" t="n">
+        <v>21691136843814</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2116,10 +2114,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>103610396583974</t>
-        </is>
+      <c r="C39" t="n">
+        <v>103610396583974</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2141,16 +2137,8 @@
           <t>85.25%</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
           <t>2025-03-10 00:59:54</t>
@@ -2168,10 +2156,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>21691136843814</t>
-        </is>
+      <c r="C40" t="n">
+        <v>21691136843814</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2220,10 +2206,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>21691136843814</t>
-        </is>
+      <c r="C41" t="n">
+        <v>21691136843814</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2272,10 +2256,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1938830</t>
-        </is>
+      <c r="C42" t="n">
+        <v>1938830</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2324,10 +2306,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1938830</t>
-        </is>
+      <c r="C43" t="n">
+        <v>1938830</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2376,10 +2356,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>102004060440613</t>
-        </is>
+      <c r="C44" t="n">
+        <v>102004060440613</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2428,10 +2406,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>6464689526794</t>
-        </is>
+      <c r="C45" t="n">
+        <v>6464689526794</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2480,10 +2456,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>6464689526794</t>
-        </is>
+      <c r="C46" t="n">
+        <v>6464689526794</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2532,44 +2506,562 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>6464689526794</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.82 minutes</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>73.38%</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>78.26%</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2025-03-10 02:37:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>21691136843814</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.51 minutes</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>73.22%</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>42.91%</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>56.79%</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2025-03-10 14:34:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>103610396583974</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.51 minutes</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>{'height': 2000, 'width': 2000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2025-03-10 14:43:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>21691136843814</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.09 minutes</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>74.22%</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>44.00%</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>56.78%</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2025-03-10 14:54:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>21691136843814</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.00 minutes</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>72.55%</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>49.79%</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>57.71%</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2025-03-10 15:04:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1938830</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.42 minutes</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>{'height': 2048, 'width': 2048, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>32.36%</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>19.60%</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>18.87%</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2025-03-10 15:10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1938830</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.71 minutes</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>{'height': 2048, 'width': 2048, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>29.41%</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>11.06%</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>44.47%</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2025-03-10 15:16:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>102004060440613</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.37 minutes</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>{'height': 3040, 'width': 4056, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>60.87%</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>72.00%</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2025-03-10 15:28:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>6464689526794</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>12.82 minutes</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.17 minutes</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>73.17%</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>78.57%</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>82.61%</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2025-03-10 15:37:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>6464689526794</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.95 minutes</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>77.18%</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>72.55%</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>77.19%</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2025-03-10 15:47:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>6464689526794</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13.07 minutes</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>RepPoints-[37M]</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>73.38%</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>71.43%</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>78.26%</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>2025-03-10 02:37:41</t>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>68.29%</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>74.42%</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2025-03-10 16:00:34</t>
         </is>
       </c>
     </row>

--- a/Large Images/reports/report.xlsx
+++ b/Large Images/reports/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,47 +501,622 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>21691136843814</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.65 minutes</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-03-17 10:18:04</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21691136843814</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.13 minutes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-04-01 14:39:07</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>103610396583974</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.34 minutes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{'height': 2000, 'width': 2000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-04-01 14:55:55</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21691136843814</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.29 minutes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:05:28</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21691136843814</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.94 minutes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:15:41</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1938830</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.35 minutes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{'height': 2048, 'width': 2048, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:22:18</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1938830</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.43 minutes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{'height': 2048, 'width': 2048, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:28:59</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>102004060440613</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.76 minutes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{'height': 3040, 'width': 4056, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:41:44</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6464689526794</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.51 minutes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:50:32</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6464689526794</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.81 minutes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>81%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:00:36</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6464689526794</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.45 minutes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-04-01 16:14:18</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>21691136843814</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.65 minutes</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.99 minutes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>SegFormer-[14M]</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>73%</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>44%</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2025-03-17 10:18:04</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-04-07 14:24:12</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>10</t>
         </is>

--- a/Large Images/reports/report.xlsx
+++ b/Large Images/reports/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,47 +1076,613 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>21691136843814</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.99 minutes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-04-07 14:24:12</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>21691136843814</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.99 minutes</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.90 minutes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>SegFormer-[14M]</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:31:09</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>103610396583974</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.22 minutes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>{'height': 2000, 'width': 2000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:38:46</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21691136843814</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.82 minutes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>73%</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>44%</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>56%</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>2025-04-07 14:24:12</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:48:09</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>21691136843814</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.06 minutes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:58:42</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1938830</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.02 minutes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>{'height': 2048, 'width': 2048, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-04-29 15:05:48</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1938830</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.09 minutes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>{'height': 2048, 'width': 2048, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-04-29 15:11:56</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>102004060440613</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.15 minutes</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>{'height': 3040, 'width': 4056, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-04-29 15:41:56</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6464689526794</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.45 minutes</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-04-29 16:11:58</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>6464689526794</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.44 minutes</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-04-29 17:43:27</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>6464689526794</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.84 minutes</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:35:09</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>10</t>
         </is>

--- a/Large Images/reports/report.xlsx
+++ b/Large Images/reports/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,10 +1129,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>21691136843814</t>
-        </is>
+      <c r="C14" t="n">
+        <v>21691136843814</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1169,10 +1167,8 @@
           <t>2025-04-29 14:31:09</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="K14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1186,10 +1182,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>103610396583974</t>
-        </is>
+      <c r="C15" t="n">
+        <v>103610396583974</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1211,25 +1205,15 @@
           <t>85%</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t>2025-04-29 14:38:46</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="K15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1243,10 +1227,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>21691136843814</t>
-        </is>
+      <c r="C16" t="n">
+        <v>21691136843814</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1283,10 +1265,8 @@
           <t>2025-04-29 14:48:09</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="K16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1300,10 +1280,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>21691136843814</t>
-        </is>
+      <c r="C17" t="n">
+        <v>21691136843814</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1340,10 +1318,8 @@
           <t>2025-04-29 14:58:42</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="K17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1357,10 +1333,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1938830</t>
-        </is>
+      <c r="C18" t="n">
+        <v>1938830</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1397,10 +1371,8 @@
           <t>2025-04-29 15:05:48</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="K18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1414,10 +1386,8 @@
           <t>segmentation</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1938830</t>
-        </is>
+      <c r="C19" t="n">
+        <v>1938830</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1454,10 +1424,8 @@
           <t>2025-04-29 15:11:56</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="K19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1471,10 +1439,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>102004060440613</t>
-        </is>
+      <c r="C20" t="n">
+        <v>102004060440613</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1511,10 +1477,8 @@
           <t>2025-04-29 15:41:56</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="K20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1528,10 +1492,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>6464689526794</t>
-        </is>
+      <c r="C21" t="n">
+        <v>6464689526794</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1568,10 +1530,8 @@
           <t>2025-04-29 16:11:58</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="K21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1585,10 +1545,8 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>6464689526794</t>
-        </is>
+      <c r="C22" t="n">
+        <v>6464689526794</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1625,10 +1583,8 @@
           <t>2025-04-29 17:43:27</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="K22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1642,47 +1598,613 @@
           <t>object-detection</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>6464689526794</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.84 minutes</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:35:09</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>21691136843814</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.11 minutes</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-06-10 11:10:25</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>103610396583974</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.13 minutes</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>RepPoints-[37M]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>{'height': 2000, 'width': 2000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-06-10 11:16:03</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>21691136843814</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.96 minutes</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-06-10 11:25:28</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>21691136843814</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.96 minutes</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-06-10 11:36:08</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1938830</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.56 minutes</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>FastVit-[14M]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>{'height': 2048, 'width': 2048, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-06-10 11:42:55</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>segmentation</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1938830</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.14 minutes</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SegFormer-[14M]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>{'height': 2048, 'width': 2048, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2025-06-10 11:49:32</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>102004060440613</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.72 minutes</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>{'height': 3040, 'width': 4056, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2025-06-10 12:01:34</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>6464689526794</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>9.84 minutes</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.42 minutes</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>RtmDet-[9M]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2025-06-10 12:10:09</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>6464689526794</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.30 minutes</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>RepPoints-[20M]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2025-06-10 12:20:31</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Large Images</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>object-detection</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>6464689526794</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.72 minutes</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>RepPoints-[37M]</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>{'height': 6000, 'width': 6000, 'paddingValue': 0}</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>74%</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2025-04-29 18:35:09</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2025-06-10 12:33:25</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>10</t>
         </is>
